--- a/resultados/testes.xlsx
+++ b/resultados/testes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Code\git\PROMETHEE-Scoring\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive (UFF)\Code\git\PROMETHEE-Scoring\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36ABCEF8-4456-4B04-A084-C8F52296F81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289DB074-1997-4D9B-ADFB-7FE05F16AB0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B3164EB-66BA-4515-8FF8-B9F48D29CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B3164EB-66BA-4515-8FF8-B9F48D29CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="56">
   <si>
     <t>a_1</t>
   </si>
@@ -183,13 +183,37 @@
   </si>
   <si>
     <t>result</t>
+  </si>
+  <si>
+    <t>$\sigma-\mu$ - Model 1</t>
+  </si>
+  <si>
+    <t>$\sigma-\mu$ - Modified Model 1</t>
+  </si>
+  <si>
+    <t>SMAA-PROMETHEE II</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Expected Rank</t>
+  </si>
+  <si>
+    <t>Rank with the highest probability</t>
+  </si>
+  <si>
+    <t>$sm_i$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +226,13 @@
       <color rgb="FFD4D4D4"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -221,17 +252,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -543,15 +584,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FB8813-7FE2-4496-BDBC-72C5CDAA876C}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="S39" sqref="S31:S39"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>15</v>
       </c>
@@ -568,64 +626,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>5.5340829999999999</v>
+        <v>4.5568049999999998</v>
       </c>
       <c r="C2">
-        <v>8.4251330000000006</v>
+        <v>9.3752209999999998</v>
       </c>
       <c r="D2">
-        <v>6.772964</v>
+        <v>6.621607</v>
       </c>
       <c r="E2">
-        <v>6.8451719999999998</v>
+        <v>6.7419529999999996</v>
       </c>
       <c r="F2">
-        <v>7.6158979999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.0264959999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
-        <v>7.2345230000000003</v>
+        <v>7.3908719999999999</v>
       </c>
       <c r="C3">
-        <v>8.8454359999999994</v>
+        <v>10.075727000000001</v>
       </c>
       <c r="D3">
-        <v>8.8035700000000006</v>
+        <v>10.00595</v>
       </c>
       <c r="E3">
-        <v>6.4190100000000001</v>
+        <v>6.0316830000000001</v>
       </c>
       <c r="F3">
-        <v>6.5465460000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.244243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>3.170515</v>
+        <v>0.61752499999999999</v>
       </c>
       <c r="C4">
-        <v>7.9804279999999999</v>
+        <v>8.6340459999999997</v>
       </c>
       <c r="D4">
-        <v>8.2966540000000002</v>
+        <v>9.1610899999999997</v>
       </c>
       <c r="E4">
-        <v>5.8867520000000004</v>
+        <v>5.1445869999999996</v>
       </c>
       <c r="F4">
-        <v>10.404631999999999</v>
+        <v>12.674386999999999</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
@@ -633,368 +691,404 @@
       <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5">
-        <v>10.642498</v>
+        <v>11.070830000000001</v>
       </c>
       <c r="C5">
-        <v>10.099776</v>
+        <v>10.166293</v>
       </c>
       <c r="D5">
-        <v>10.453708000000001</v>
+        <v>10.756180000000001</v>
       </c>
       <c r="E5">
-        <v>9.0485170000000004</v>
+        <v>8.4141949999999994</v>
       </c>
       <c r="F5">
-        <v>9.4558879999999998</v>
+        <v>9.0931470000000001</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
       </c>
       <c r="J5">
-        <v>-0.115635</v>
-      </c>
-      <c r="L5" t="s">
+        <v>-0.15640999999999999</v>
+      </c>
+      <c r="K5">
+        <v>13</v>
+      </c>
+      <c r="N5" t="s">
         <v>25</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>0.81178399999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
-        <v>7.2160650000000004</v>
+        <v>7.3601089999999996</v>
       </c>
       <c r="C6">
-        <v>9.1814099999999996</v>
+        <v>10.635683999999999</v>
       </c>
       <c r="D6">
-        <v>8.1415570000000006</v>
+        <v>8.9025940000000006</v>
       </c>
       <c r="E6">
-        <v>7.1825130000000001</v>
+        <v>7.3041879999999999</v>
       </c>
       <c r="F6">
-        <v>7.6657950000000001</v>
+        <v>8.1096579999999996</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>-0.36019600000000002</v>
-      </c>
-      <c r="L6" t="s">
+        <v>5.4418000000000001E-2</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
         <v>23</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.32976100000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>11.093636</v>
+        <v>10.182273</v>
       </c>
       <c r="C7">
-        <v>10.193474</v>
+        <v>10.032246000000001</v>
       </c>
       <c r="D7">
-        <v>11.709101</v>
+        <v>10.28485</v>
       </c>
       <c r="E7">
-        <v>8.1477609999999991</v>
+        <v>9.6912939999999992</v>
       </c>
       <c r="F7">
-        <v>10.603512</v>
+        <v>10.100585000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>0.24094699999999999</v>
-      </c>
-      <c r="L7" t="s">
+        <v>-1.5263000000000001E-2</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.234819</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8">
-        <v>9.3973289999999992</v>
+        <v>8.9955479999999994</v>
       </c>
       <c r="C8">
-        <v>7.5547019999999998</v>
+        <v>5.9245039999999998</v>
       </c>
       <c r="D8">
-        <v>10.694172999999999</v>
+        <v>11.156955999999999</v>
       </c>
       <c r="E8">
-        <v>8.6390519999999995</v>
+        <v>7.7317539999999996</v>
       </c>
       <c r="F8">
-        <v>10.077918</v>
+        <v>10.129863</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J8">
-        <v>0.32565100000000002</v>
-      </c>
-      <c r="L8" t="s">
+        <v>0.40879100000000002</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>26</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.21235399999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9">
-        <v>4.8184509999999996</v>
+        <v>3.3640859999999999</v>
       </c>
       <c r="C9">
-        <v>7.068638</v>
+        <v>7.1143960000000002</v>
       </c>
       <c r="D9">
-        <v>6.7192239999999996</v>
+        <v>6.5320400000000003</v>
       </c>
       <c r="E9">
-        <v>9.2991689999999991</v>
+        <v>10.831948000000001</v>
       </c>
       <c r="F9">
-        <v>9.2040380000000006</v>
+        <v>10.673397</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>-8.5970000000000005E-2</v>
-      </c>
-      <c r="L9" t="s">
+        <v>0.14548</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>28</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>0.21232799999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10">
-        <v>9.3428889999999996</v>
+        <v>8.904814</v>
       </c>
       <c r="C10">
-        <v>8.1208069999999992</v>
+        <v>6.8680120000000002</v>
       </c>
       <c r="D10">
-        <v>11.166236</v>
+        <v>11.943726</v>
       </c>
       <c r="E10">
-        <v>7.5791529999999998</v>
+        <v>5.965255</v>
       </c>
       <c r="F10">
-        <v>9.6808899999999998</v>
+        <v>9.4681490000000004</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J10">
-        <v>-0.36192400000000002</v>
-      </c>
-      <c r="L10" t="s">
+        <v>0.42909199999999997</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>37</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>0.204928</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B11">
-        <v>5.4271710000000004</v>
+        <v>7.3786180000000003</v>
       </c>
       <c r="C11">
-        <v>4.8699729999999999</v>
+        <v>6.4499550000000001</v>
       </c>
       <c r="D11">
-        <v>4.4405950000000001</v>
+        <v>5.7343250000000001</v>
       </c>
       <c r="E11">
-        <v>9.9261630000000007</v>
+        <v>14.876938000000001</v>
       </c>
       <c r="F11">
-        <v>6.2355219999999996</v>
+        <v>8.7258700000000005</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J11">
-        <v>-0.94756300000000004</v>
-      </c>
-      <c r="L11" t="s">
+        <v>0.13233400000000001</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>38</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>0.137265</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>8.9913089999999993</v>
+        <v>8.3188490000000002</v>
       </c>
       <c r="C12">
-        <v>9.4606700000000004</v>
+        <v>9.1011170000000003</v>
       </c>
       <c r="D12">
-        <v>8.7802810000000004</v>
+        <v>7.9671339999999997</v>
       </c>
       <c r="E12">
-        <v>7.4105759999999998</v>
+        <v>5.6842930000000003</v>
       </c>
       <c r="F12">
-        <v>10.266139000000001</v>
+        <v>10.443565</v>
       </c>
       <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>-7.5428999999999996E-2</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12">
+        <v>-4.7310999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>7.7613339999999997</v>
+      </c>
+      <c r="C13">
+        <v>10.967256000000001</v>
+      </c>
+      <c r="D13">
+        <v>8.7229869999999998</v>
+      </c>
+      <c r="E13">
+        <v>7.0484200000000001</v>
+      </c>
+      <c r="F13">
+        <v>9.9295439999999999</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13">
+        <v>0.125919</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
         <v>21</v>
       </c>
-      <c r="J12">
-        <v>-5.4334E-2</v>
-      </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12">
-        <v>-4.7310999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>8.6568000000000005</v>
-      </c>
-      <c r="C13">
-        <v>10.580354</v>
-      </c>
-      <c r="D13">
-        <v>9.2337919999999993</v>
-      </c>
-      <c r="E13">
-        <v>8.2290519999999994</v>
-      </c>
-      <c r="F13">
-        <v>9.9577270000000002</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J13">
-        <v>-8.8234000000000007E-2</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13">
+      <c r="O13">
         <v>-0.122669</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B14">
-        <v>7.5005110000000004</v>
+        <v>7.8341859999999999</v>
       </c>
       <c r="C14">
-        <v>9.2411189999999994</v>
+        <v>10.735198</v>
       </c>
       <c r="D14">
-        <v>6.6922629999999996</v>
+        <v>6.4871040000000004</v>
       </c>
       <c r="E14">
-        <v>7.4696020000000001</v>
+        <v>7.7826690000000003</v>
       </c>
       <c r="F14">
-        <v>5.7188559999999997</v>
+        <v>4.8647609999999997</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J14">
-        <v>0.40551599999999999</v>
-      </c>
-      <c r="L14" t="s">
+        <v>5.8569000000000003E-2</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="N14" t="s">
         <v>27</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>-0.129076</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B15">
-        <v>7.2324210000000004</v>
+        <v>7.3873689999999996</v>
       </c>
       <c r="C15">
-        <v>7.5672439999999996</v>
+        <v>7.9454060000000002</v>
       </c>
       <c r="D15">
-        <v>5.6683209999999997</v>
+        <v>4.7805359999999997</v>
       </c>
       <c r="E15">
-        <v>4.0288050000000002</v>
+        <v>2.048009</v>
       </c>
       <c r="F15">
-        <v>6.4781319999999996</v>
+        <v>6.1302199999999996</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J15">
-        <v>1.3634E-2</v>
-      </c>
-      <c r="L15" t="s">
+        <v>0.10248400000000001</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="N15" t="s">
         <v>40</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>-0.153917</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>2.4410129999999999</v>
@@ -1012,57 +1106,69 @@
         <v>2.4668890000000001</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="J16">
-        <v>0.479798</v>
-      </c>
-      <c r="L16" t="s">
+        <v>0.20566799999999999</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
         <v>22</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>-0.16350999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J17">
-        <v>0.29723500000000003</v>
-      </c>
-      <c r="L17" t="s">
+        <v>-8.2591999999999999E-2</v>
+      </c>
+      <c r="K17">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
         <v>20</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>-0.176175</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J18">
-        <v>-6.5563999999999997E-2</v>
-      </c>
-      <c r="L18" t="s">
+        <v>-0.41305500000000001</v>
+      </c>
+      <c r="K18">
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
         <v>41</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>-0.38804499999999997</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J19">
-        <v>0.316639</v>
-      </c>
-      <c r="L19" t="s">
+        <v>-0.92000400000000004</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="N19" t="s">
         <v>42</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>-0.96253500000000003</v>
       </c>
     </row>
@@ -1282,10 +1388,10 @@
       <c r="F30">
         <v>9.2355219999999996</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>44</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>45</v>
       </c>
       <c r="S30" t="s">
@@ -1314,13 +1420,10 @@
       <c r="F31">
         <v>10.266139000000001</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>5</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
+      <c r="P31">
         <v>1</v>
       </c>
       <c r="S31" s="1" t="s">
@@ -1349,14 +1452,11 @@
       <c r="F32">
         <v>9.9577270000000002</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>3</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>0.36156199999999999</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>23</v>
@@ -1384,14 +1484,11 @@
       <c r="F33">
         <v>5.7188559999999997</v>
       </c>
-      <c r="M33" t="s">
+      <c r="O33" t="s">
         <v>11</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>0.28184700000000001</v>
-      </c>
-      <c r="O33">
-        <v>3</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>31</v>
@@ -1419,14 +1516,11 @@
       <c r="F34">
         <v>6.4781319999999996</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>10</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>0.241281</v>
-      </c>
-      <c r="O34">
-        <v>4</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>24</v>
@@ -1454,14 +1548,11 @@
       <c r="F35">
         <v>2.4668890000000001</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>6</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>0.23801600000000001</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>28</v>
@@ -1471,14 +1562,11 @@
       </c>
     </row>
     <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="M36" t="s">
+      <c r="O36" t="s">
         <v>8</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>0.22391</v>
-      </c>
-      <c r="O36">
-        <v>6</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>26</v>
@@ -1488,14 +1576,11 @@
       </c>
     </row>
     <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>4</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>0.203704</v>
-      </c>
-      <c r="O37">
-        <v>7</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>30</v>
@@ -1514,14 +1599,24 @@
       <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="M38" t="s">
+      <c r="G38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="O38" t="s">
         <v>14</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>0.203463</v>
-      </c>
-      <c r="O38">
-        <v>8</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>21</v>
@@ -1530,7 +1625,7 @@
         <v>6.3715999999999995E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1540,14 +1635,35 @@
       <c r="C39">
         <v>1</v>
       </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="M39" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" t="s">
         <v>9</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>0.16018099999999999</v>
-      </c>
-      <c r="O39">
-        <v>9</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>29</v>
@@ -1566,14 +1682,35 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="M40" t="s">
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.30980400000000002</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0.562029</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+      <c r="K40" s="4">
+        <v>11.5761</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="O40" t="s">
         <v>0</v>
       </c>
-      <c r="N40">
+      <c r="P40">
         <v>0.15065799999999999</v>
-      </c>
-      <c r="O40">
-        <v>10</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>22</v>
@@ -1592,14 +1729,35 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="M41" t="s">
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.31502999999999998</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0.733344</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="K41" s="4">
+        <v>8.1933000000000007</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0.16070000000000001</v>
+      </c>
+      <c r="O41" t="s">
         <v>1</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>0.123515</v>
-      </c>
-      <c r="O41">
-        <v>11</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>27</v>
@@ -1618,14 +1776,35 @@
       <c r="C42">
         <v>4</v>
       </c>
-      <c r="M42" t="s">
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.14737700000000001</v>
+      </c>
+      <c r="H42">
         <v>12</v>
       </c>
-      <c r="N42">
+      <c r="I42" s="4">
+        <v>0.88360099999999997</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42" s="4">
+        <v>8.9885000000000002</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="O42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42">
         <v>8.2675999999999999E-2</v>
-      </c>
-      <c r="O42">
-        <v>12</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>32</v>
@@ -1644,14 +1823,35 @@
       <c r="C43">
         <v>5</v>
       </c>
-      <c r="M43" t="s">
+      <c r="F43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.86209100000000005</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.98495100000000002</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1.9121999999999999</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="O43" t="s">
         <v>13</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>5.2747000000000002E-2</v>
-      </c>
-      <c r="O43">
-        <v>13</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>20</v>
@@ -1670,14 +1870,35 @@
       <c r="C44">
         <v>6</v>
       </c>
-      <c r="M44" t="s">
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.73914100000000005</v>
+      </c>
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0.75698600000000005</v>
+      </c>
+      <c r="J44">
+        <v>9</v>
+      </c>
+      <c r="K44" s="4">
+        <v>6.3122999999999996</v>
+      </c>
+      <c r="L44">
         <v>7</v>
       </c>
-      <c r="N44">
+      <c r="M44" s="3">
+        <v>0.2233</v>
+      </c>
+      <c r="O44" t="s">
+        <v>7</v>
+      </c>
+      <c r="P44">
         <v>4.7088999999999999E-2</v>
-      </c>
-      <c r="O44">
-        <v>14</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>33</v>
@@ -1696,14 +1917,35 @@
       <c r="C45">
         <v>7</v>
       </c>
-      <c r="M45" t="s">
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1.5434000000000001</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="O45" t="s">
         <v>2</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>0</v>
-      </c>
-      <c r="O45">
-        <v>15</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>34</v>
@@ -1722,6 +1964,30 @@
       <c r="C46">
         <v>8</v>
       </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.41706599999999999</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0.804809</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46" s="4">
+        <v>6.4028</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.22919999999999999</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1733,6 +1999,30 @@
       <c r="C47">
         <v>9</v>
       </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6.5249000000000001E-2</v>
+      </c>
+      <c r="H47">
+        <v>14</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.82230499999999995</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47" s="4">
+        <v>9.8952000000000009</v>
+      </c>
+      <c r="L47">
+        <v>11</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0.16220000000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1744,8 +2034,32 @@
       <c r="C48">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.40858699999999998</v>
+      </c>
+      <c r="H48">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.80012300000000003</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48" s="4">
+        <v>6.6624999999999996</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.14230000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -1755,8 +2069,32 @@
       <c r="C49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.27358100000000002</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0.873722</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
+      </c>
+      <c r="K49" s="4">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="L49">
+        <v>10</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.1633</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>27</v>
       </c>
@@ -1766,8 +2104,32 @@
       <c r="C50">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.62921000000000005</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.73219100000000004</v>
+      </c>
+      <c r="J50">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4">
+        <v>7.3587999999999996</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0.19350000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -1777,8 +2139,32 @@
       <c r="C51">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.75926800000000005</v>
+      </c>
+      <c r="H51">
+        <v>4</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.80457199999999995</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
+      </c>
+      <c r="K51" s="4">
+        <v>4.6067999999999998</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0.3478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1788,8 +2174,32 @@
       <c r="C52">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="4">
+        <v>8.8452000000000003E-2</v>
+      </c>
+      <c r="H52">
+        <v>13</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.69192900000000002</v>
+      </c>
+      <c r="J52">
+        <v>12</v>
+      </c>
+      <c r="K52" s="4">
+        <v>10.2264</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0.25779999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>37</v>
       </c>
@@ -1798,6 +2208,356 @@
       </c>
       <c r="C53">
         <v>15</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>15</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.52530900000000003</v>
+      </c>
+      <c r="J53">
+        <v>14</v>
+      </c>
+      <c r="K53" s="4">
+        <v>13.492699999999999</v>
+      </c>
+      <c r="L53">
+        <v>14</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0.76659999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.98267300000000002</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54" s="4">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>15</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58">
+        <v>12</v>
+      </c>
+      <c r="M58" t="s">
+        <v>20</v>
+      </c>
+      <c r="N58">
+        <v>11.5761</v>
+      </c>
+      <c r="O58" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59">
+        <v>8.1933000000000007</v>
+      </c>
+      <c r="O59" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59">
+        <v>0.16070000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <v>13</v>
+      </c>
+      <c r="M60" t="s">
+        <v>22</v>
+      </c>
+      <c r="N60">
+        <v>8.9885000000000002</v>
+      </c>
+      <c r="O60" t="s">
+        <v>22</v>
+      </c>
+      <c r="P60">
+        <v>0.14349999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="M61" t="s">
+        <v>23</v>
+      </c>
+      <c r="N61">
+        <v>1.9121999999999999</v>
+      </c>
+      <c r="O61" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61">
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="M62" t="s">
+        <v>24</v>
+      </c>
+      <c r="N62">
+        <v>6.3122999999999996</v>
+      </c>
+      <c r="O62" t="s">
+        <v>24</v>
+      </c>
+      <c r="P62">
+        <v>0.2233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63">
+        <v>1.5434000000000001</v>
+      </c>
+      <c r="O63" t="s">
+        <v>25</v>
+      </c>
+      <c r="P63">
+        <v>0.49959999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64">
+        <v>6.4028</v>
+      </c>
+      <c r="O64" t="s">
+        <v>26</v>
+      </c>
+      <c r="P64">
+        <v>0.22919999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="M65" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65">
+        <v>9.8952000000000009</v>
+      </c>
+      <c r="O65" t="s">
+        <v>27</v>
+      </c>
+      <c r="P65">
+        <v>0.16220000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="M66" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66">
+        <v>6.6624999999999996</v>
+      </c>
+      <c r="O66" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66">
+        <v>0.14230000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="M67" t="s">
+        <v>29</v>
+      </c>
+      <c r="N67">
+        <v>7.8289999999999997</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67">
+        <v>0.1633</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68">
+        <v>7</v>
+      </c>
+      <c r="M68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N68">
+        <v>7.3587999999999996</v>
+      </c>
+      <c r="O68" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68">
+        <v>0.19350000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>31</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="M69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69">
+        <v>4.6067999999999998</v>
+      </c>
+      <c r="O69" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69">
+        <v>0.3478</v>
+      </c>
+    </row>
+    <row r="70" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70">
+        <v>13</v>
+      </c>
+      <c r="M70" t="s">
+        <v>32</v>
+      </c>
+      <c r="N70">
+        <v>10.2264</v>
+      </c>
+      <c r="O70" t="s">
+        <v>32</v>
+      </c>
+      <c r="P70">
+        <v>0.25779999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>14</v>
+      </c>
+      <c r="M71" t="s">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>13.492699999999999</v>
+      </c>
+      <c r="O71" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71">
+        <v>0.76659999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>34</v>
+      </c>
+      <c r="K72">
+        <v>15</v>
+      </c>
+      <c r="M72" t="s">
+        <v>34</v>
+      </c>
+      <c r="N72">
+        <v>15</v>
+      </c>
+      <c r="O72" t="s">
+        <v>34</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1806,6 +2566,11 @@
       <sortCondition descending="1" ref="T30:T45"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:M38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>